--- a/Taipei-city.xlsx
+++ b/Taipei-city.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4800" windowWidth="21690" windowHeight="9570"/>
+    <workbookView xWindow="0" yWindow="5400" windowWidth="21690" windowHeight="9570"/>
   </bookViews>
   <sheets>
     <sheet name="TPE100" sheetId="4" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="570">
   <si>
     <t>台北市</t>
   </si>
@@ -1546,6 +1546,195 @@
   </si>
   <si>
     <t>5010603403</t>
+  </si>
+  <si>
+    <t>公園路</t>
+  </si>
+  <si>
+    <t>5010304391</t>
+  </si>
+  <si>
+    <t>5010400962</t>
+  </si>
+  <si>
+    <t>5010407869</t>
+  </si>
+  <si>
+    <t>5010407881</t>
+  </si>
+  <si>
+    <t>5010408383</t>
+  </si>
+  <si>
+    <t>5010410195</t>
+  </si>
+  <si>
+    <t>5010410330</t>
+  </si>
+  <si>
+    <t>5010500331</t>
+  </si>
+  <si>
+    <t>5010500652</t>
+  </si>
+  <si>
+    <t>5010501253</t>
+  </si>
+  <si>
+    <t>5010501413</t>
+  </si>
+  <si>
+    <t>5010502852</t>
+  </si>
+  <si>
+    <t>5010601379</t>
+  </si>
+  <si>
+    <t>5010601788</t>
+  </si>
+  <si>
+    <t>5010406062</t>
+  </si>
+  <si>
+    <t>5010407404</t>
+  </si>
+  <si>
+    <t>5010407405</t>
+  </si>
+  <si>
+    <t>5010500274</t>
+  </si>
+  <si>
+    <t>5010501350</t>
+  </si>
+  <si>
+    <t>5010504130</t>
+  </si>
+  <si>
+    <t>水源路</t>
+  </si>
+  <si>
+    <t>5010404091</t>
+  </si>
+  <si>
+    <t>5010500019</t>
+  </si>
+  <si>
+    <t>5010302676</t>
+  </si>
+  <si>
+    <t>5010303600</t>
+  </si>
+  <si>
+    <t>5010304438</t>
+  </si>
+  <si>
+    <t>5010400247</t>
+  </si>
+  <si>
+    <t>5010401436</t>
+  </si>
+  <si>
+    <t>5010401601</t>
+  </si>
+  <si>
+    <t>5010407892</t>
+  </si>
+  <si>
+    <t>5010409067</t>
+  </si>
+  <si>
+    <t>5010409543</t>
+  </si>
+  <si>
+    <t>5010409544</t>
+  </si>
+  <si>
+    <t>5010409855</t>
+  </si>
+  <si>
+    <t>5010410572</t>
+  </si>
+  <si>
+    <t>5010500310</t>
+  </si>
+  <si>
+    <t>5010502389</t>
+  </si>
+  <si>
+    <t>5010600434</t>
+  </si>
+  <si>
+    <t>5010600789</t>
+  </si>
+  <si>
+    <t>5010601026</t>
+  </si>
+  <si>
+    <t>5010601380</t>
+  </si>
+  <si>
+    <t>5010602259</t>
+  </si>
+  <si>
+    <t>5010602276</t>
+  </si>
+  <si>
+    <t>5010602277</t>
+  </si>
+  <si>
+    <t>5010602278</t>
+  </si>
+  <si>
+    <t>5010406010</t>
+  </si>
+  <si>
+    <t>5010407632</t>
+  </si>
+  <si>
+    <t>5010500705</t>
+  </si>
+  <si>
+    <t>5010503406</t>
+  </si>
+  <si>
+    <t>5010503880</t>
+  </si>
+  <si>
+    <t>北平西路</t>
+  </si>
+  <si>
+    <t>北平東路</t>
+  </si>
+  <si>
+    <t>5010300284</t>
+  </si>
+  <si>
+    <t>5010301227</t>
+  </si>
+  <si>
+    <t>5010301420</t>
+  </si>
+  <si>
+    <t>5010302552</t>
+  </si>
+  <si>
+    <t>5010502244</t>
+  </si>
+  <si>
+    <t>5010600981</t>
+  </si>
+  <si>
+    <t>5010404093</t>
+  </si>
+  <si>
+    <t>5010502841</t>
+  </si>
+  <si>
+    <t>5010503370</t>
+  </si>
+  <si>
+    <t>5010600446</t>
   </si>
 </sst>
 </file>
@@ -1625,34 +1814,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -1911,6 +2072,34 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
       </font>
@@ -1950,36 +2139,36 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="keyin" displayName="keyin" ref="A1:Q96" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
-  <autoFilter ref="A1:Q96"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="keyin" displayName="keyin" ref="A1:Q155" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+  <autoFilter ref="A1:Q155"/>
   <tableColumns count="17">
-    <tableColumn id="1" name="執照號碼" dataDxfId="20"/>
-    <tableColumn id="2" name="中心頻率" dataDxfId="19"/>
-    <tableColumn id="3" name="中心頻率2" dataDxfId="18"/>
-    <tableColumn id="4" name="中心頻率3" dataDxfId="17"/>
-    <tableColumn id="5" name="中心頻率4" dataDxfId="16"/>
-    <tableColumn id="6" name="使用單位" dataDxfId="15">
+    <tableColumn id="1" name="執照號碼" dataDxfId="18"/>
+    <tableColumn id="2" name="中心頻率" dataDxfId="17"/>
+    <tableColumn id="3" name="中心頻率2" dataDxfId="16"/>
+    <tableColumn id="4" name="中心頻率3" dataDxfId="15"/>
+    <tableColumn id="5" name="中心頻率4" dataDxfId="14"/>
+    <tableColumn id="6" name="使用單位" dataDxfId="13">
       <calculatedColumnFormula>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,3,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="發照日期" dataDxfId="14"/>
-    <tableColumn id="8" name="到期日期" dataDxfId="13"/>
-    <tableColumn id="9" name="頻寬" dataDxfId="12">
+    <tableColumn id="7" name="發照日期" dataDxfId="12"/>
+    <tableColumn id="8" name="到期日期" dataDxfId="11"/>
+    <tableColumn id="9" name="頻寬" dataDxfId="10">
       <calculatedColumnFormula>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="頻寬2" dataDxfId="11">
+    <tableColumn id="10" name="頻寬2" dataDxfId="9">
       <calculatedColumnFormula>VLOOKUP(keyin[[#This Row],[中心頻率2]],info!E:G,2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="頻寬3" dataDxfId="10">
+    <tableColumn id="11" name="頻寬3" dataDxfId="8">
       <calculatedColumnFormula>VLOOKUP(keyin[[#This Row],[中心頻率3]],info!E:G,2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="頻寬4" dataDxfId="9">
+    <tableColumn id="12" name="頻寬4" dataDxfId="7">
       <calculatedColumnFormula>VLOOKUP(keyin[[#This Row],[中心頻率4]],info!E:G,2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="功率(W_" dataDxfId="8"/>
-    <tableColumn id="14" name="PO#" dataDxfId="7"/>
-    <tableColumn id="15" name="共站?" dataDxfId="6"/>
-    <tableColumn id="16" name="狀態?" dataDxfId="5"/>
-    <tableColumn id="17" name="RD." dataDxfId="4"/>
+    <tableColumn id="13" name="功率(W_" dataDxfId="6"/>
+    <tableColumn id="14" name="PO#" dataDxfId="5"/>
+    <tableColumn id="15" name="共站?" dataDxfId="4"/>
+    <tableColumn id="16" name="狀態?" dataDxfId="3"/>
+    <tableColumn id="17" name="RD." dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2248,10 +2437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R96"/>
+  <dimension ref="A1:R155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A96" sqref="A96"/>
+    <sheetView tabSelected="1" topLeftCell="A125" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A155" sqref="A155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5930,7 +6119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>475</v>
       </c>
@@ -5979,7 +6168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>476</v>
       </c>
@@ -6022,7 +6211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>478</v>
       </c>
@@ -6068,7 +6257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>477</v>
       </c>
@@ -6111,7 +6300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>479</v>
       </c>
@@ -6154,7 +6343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>480</v>
       </c>
@@ -6200,7 +6389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>505</v>
       </c>
@@ -6243,7 +6432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>481</v>
       </c>
@@ -6286,7 +6475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>482</v>
       </c>
@@ -6329,7 +6518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>483</v>
       </c>
@@ -6375,7 +6564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>484</v>
       </c>
@@ -6421,7 +6610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>485</v>
       </c>
@@ -6470,7 +6659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>486</v>
       </c>
@@ -6513,7 +6702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>487</v>
       </c>
@@ -6556,7 +6745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>506</v>
       </c>
@@ -6599,14 +6788,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="F96" s="7" t="e">
-        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I96" s="3" t="e">
-        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,2,FALSE)</f>
-        <v>#N/A</v>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A96" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="B96" s="3">
+        <v>945</v>
+      </c>
+      <c r="F96" s="7" t="str">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,3,FALSE)</f>
+        <v>CHT</v>
+      </c>
+      <c r="G96" s="4">
+        <v>41963</v>
+      </c>
+      <c r="H96" s="4">
+        <v>43788</v>
+      </c>
+      <c r="I96" s="3">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,2,FALSE)</f>
+        <v>10</v>
       </c>
       <c r="J96" s="3" t="e">
         <f>VLOOKUP(keyin[[#This Row],[中心頻率2]],info!E:G,2,FALSE)</f>
@@ -6617,6 +6818,2672 @@
         <v>#N/A</v>
       </c>
       <c r="L96" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率4]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M96" s="3">
+        <v>30</v>
+      </c>
+      <c r="O96" s="5">
+        <v>10</v>
+      </c>
+      <c r="P96" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q96" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A97" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B97" s="3">
+        <v>945</v>
+      </c>
+      <c r="F97" s="7" t="str">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,3,FALSE)</f>
+        <v>CHT</v>
+      </c>
+      <c r="G97" s="4">
+        <v>42044</v>
+      </c>
+      <c r="H97" s="4">
+        <v>43869</v>
+      </c>
+      <c r="I97" s="3">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,2,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="J97" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率2]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K97" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率3]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L97" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率4]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M97" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="O97" s="5">
+        <v>0</v>
+      </c>
+      <c r="P97" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A98" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="B98" s="3">
+        <v>773</v>
+      </c>
+      <c r="F98" s="7" t="str">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,3,FALSE)</f>
+        <v>FET</v>
+      </c>
+      <c r="G98" s="4">
+        <v>42221</v>
+      </c>
+      <c r="H98" s="4">
+        <v>44047</v>
+      </c>
+      <c r="I98" s="3">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,2,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="J98" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率2]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K98" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率3]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L98" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率4]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M98" s="3">
+        <v>40</v>
+      </c>
+      <c r="O98" s="5">
+        <v>0</v>
+      </c>
+      <c r="P98" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A99" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="B99" s="3">
+        <v>763</v>
+      </c>
+      <c r="F99" s="7" t="str">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,3,FALSE)</f>
+        <v>GT</v>
+      </c>
+      <c r="G99" s="4">
+        <v>42223</v>
+      </c>
+      <c r="H99" s="4">
+        <v>44049</v>
+      </c>
+      <c r="I99" s="3">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,2,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="J99" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率2]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K99" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率3]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L99" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率4]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M99" s="3">
+        <v>40</v>
+      </c>
+      <c r="O99" s="5">
+        <v>1</v>
+      </c>
+      <c r="P99" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A100" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="B100" s="3">
+        <v>793</v>
+      </c>
+      <c r="C100" s="3">
+        <v>1810.65</v>
+      </c>
+      <c r="F100" s="7" t="str">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,3,FALSE)</f>
+        <v>TWM</v>
+      </c>
+      <c r="G100" s="4">
+        <v>42269</v>
+      </c>
+      <c r="H100" s="4">
+        <v>44053</v>
+      </c>
+      <c r="I100" s="3">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,2,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="J100" s="3">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率2]],info!E:G,2,FALSE)</f>
+        <v>11.3</v>
+      </c>
+      <c r="K100" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率3]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L100" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率4]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M100" s="3">
+        <v>60</v>
+      </c>
+      <c r="O100" s="5">
+        <v>0</v>
+      </c>
+      <c r="P100" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A101" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="B101" s="3">
+        <v>935</v>
+      </c>
+      <c r="F101" s="7" t="str">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,3,FALSE)</f>
+        <v>T-STAR</v>
+      </c>
+      <c r="G101" s="4">
+        <v>42304</v>
+      </c>
+      <c r="H101" s="4">
+        <v>44130</v>
+      </c>
+      <c r="I101" s="3">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,2,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="J101" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率2]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K101" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率3]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L101" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率4]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M101" s="3">
+        <v>40</v>
+      </c>
+      <c r="O101" s="5">
+        <v>0</v>
+      </c>
+      <c r="P101" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A102" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="B102" s="3">
+        <v>1857.5</v>
+      </c>
+      <c r="C102" s="3">
+        <v>945</v>
+      </c>
+      <c r="F102" s="7" t="str">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,3,FALSE)</f>
+        <v>CHT</v>
+      </c>
+      <c r="G102" s="4">
+        <v>42363</v>
+      </c>
+      <c r="H102" s="4">
+        <v>44143</v>
+      </c>
+      <c r="I102" s="3">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,2,FALSE)</f>
+        <v>15</v>
+      </c>
+      <c r="J102" s="3">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率2]],info!E:G,2,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="K102" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率3]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L102" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率4]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M102" s="3">
+        <v>60</v>
+      </c>
+      <c r="O102" s="5">
+        <v>0</v>
+      </c>
+      <c r="P102" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A103" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="B103" s="3">
+        <v>773</v>
+      </c>
+      <c r="F103" s="7" t="str">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,3,FALSE)</f>
+        <v>FET</v>
+      </c>
+      <c r="G103" s="4">
+        <v>42391</v>
+      </c>
+      <c r="H103" s="4">
+        <v>44217</v>
+      </c>
+      <c r="I103" s="3">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,2,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="J103" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率2]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K103" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率3]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L103" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率4]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M103" s="3">
+        <v>60</v>
+      </c>
+      <c r="O103" s="5">
+        <v>0</v>
+      </c>
+      <c r="P103" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A104" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="B104" s="3">
+        <v>793</v>
+      </c>
+      <c r="C104" s="3">
+        <v>1810.65</v>
+      </c>
+      <c r="F104" s="7" t="str">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,3,FALSE)</f>
+        <v>TWM</v>
+      </c>
+      <c r="G104" s="4">
+        <v>42601</v>
+      </c>
+      <c r="H104" s="4">
+        <v>44275</v>
+      </c>
+      <c r="I104" s="3">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,2,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="J104" s="3">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率2]],info!E:G,2,FALSE)</f>
+        <v>11.3</v>
+      </c>
+      <c r="K104" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率3]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L104" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率4]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M104" s="3">
+        <v>60</v>
+      </c>
+      <c r="O104" s="5">
+        <v>1</v>
+      </c>
+      <c r="P104" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A105" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="B105" s="3">
+        <v>763</v>
+      </c>
+      <c r="F105" s="7" t="str">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,3,FALSE)</f>
+        <v>GT</v>
+      </c>
+      <c r="G105" s="4">
+        <v>42524</v>
+      </c>
+      <c r="H105" s="4">
+        <v>44349</v>
+      </c>
+      <c r="I105" s="3">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,2,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="J105" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率2]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K105" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率3]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L105" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率4]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M105" s="3">
+        <v>40</v>
+      </c>
+      <c r="O105" s="5">
+        <v>0</v>
+      </c>
+      <c r="P105" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A106" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="B106" s="3">
+        <v>1857.5</v>
+      </c>
+      <c r="C106" s="3">
+        <v>945</v>
+      </c>
+      <c r="D106" s="3">
+        <v>2650</v>
+      </c>
+      <c r="F106" s="7" t="str">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,3,FALSE)</f>
+        <v>CHT</v>
+      </c>
+      <c r="G106" s="4">
+        <v>42552</v>
+      </c>
+      <c r="H106" s="4">
+        <v>44377</v>
+      </c>
+      <c r="I106" s="3">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,2,FALSE)</f>
+        <v>15</v>
+      </c>
+      <c r="J106" s="3">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率2]],info!E:G,2,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="K106" s="3">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率3]],info!E:G,2,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="L106" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率4]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M106" s="3">
+        <v>40</v>
+      </c>
+      <c r="O106" s="5">
+        <v>1</v>
+      </c>
+      <c r="P106" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A107" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="B107" s="3">
+        <v>935</v>
+      </c>
+      <c r="F107" s="7" t="str">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,3,FALSE)</f>
+        <v>T-STAR</v>
+      </c>
+      <c r="G107" s="4">
+        <v>42657</v>
+      </c>
+      <c r="H107" s="4">
+        <v>44482</v>
+      </c>
+      <c r="I107" s="3">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,2,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="J107" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率2]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K107" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率3]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L107" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率4]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M107" s="3">
+        <v>40</v>
+      </c>
+      <c r="O107" s="5">
+        <v>10</v>
+      </c>
+      <c r="P107" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A108" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="B108" s="3">
+        <v>793</v>
+      </c>
+      <c r="C108" s="3">
+        <v>1810.65</v>
+      </c>
+      <c r="F108" s="7" t="str">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,3,FALSE)</f>
+        <v>TWM</v>
+      </c>
+      <c r="G108" s="4">
+        <v>42898</v>
+      </c>
+      <c r="H108" s="4">
+        <v>44724</v>
+      </c>
+      <c r="I108" s="3">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,2,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="J108" s="3">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率2]],info!E:G,2,FALSE)</f>
+        <v>11.3</v>
+      </c>
+      <c r="K108" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率3]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L108" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率4]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M108" s="3">
+        <v>80</v>
+      </c>
+      <c r="O108" s="5">
+        <v>1</v>
+      </c>
+      <c r="P108" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A109" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="B109" s="3">
+        <v>952.5</v>
+      </c>
+      <c r="F109" s="7" t="str">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,3,FALSE)</f>
+        <v>GT</v>
+      </c>
+      <c r="G109" s="4">
+        <v>42913</v>
+      </c>
+      <c r="H109" s="4">
+        <v>44738</v>
+      </c>
+      <c r="I109" s="3">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,2,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="J109" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率2]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K109" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率3]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L109" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率4]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M109" s="3">
+        <v>60</v>
+      </c>
+      <c r="O109" s="5">
+        <v>0</v>
+      </c>
+      <c r="P109" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A110" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="B110" s="3">
+        <v>1835</v>
+      </c>
+      <c r="C110" s="3">
+        <v>1844.35</v>
+      </c>
+      <c r="F110" s="7" t="str">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,3,FALSE)</f>
+        <v>FET</v>
+      </c>
+      <c r="G110" s="4">
+        <v>42193</v>
+      </c>
+      <c r="H110" s="4">
+        <v>44019</v>
+      </c>
+      <c r="I110" s="3">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,2,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="J110" s="3">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率2]],info!E:G,2,FALSE)</f>
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="K110" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率3]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L110" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率4]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M110" s="3">
+        <v>1</v>
+      </c>
+      <c r="O110" s="5">
+        <v>0</v>
+      </c>
+      <c r="P110" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A111" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="B111" s="3">
+        <v>1835</v>
+      </c>
+      <c r="C111" s="3">
+        <v>1844.35</v>
+      </c>
+      <c r="F111" s="7" t="str">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,3,FALSE)</f>
+        <v>FET</v>
+      </c>
+      <c r="G111" s="4">
+        <v>42207</v>
+      </c>
+      <c r="H111" s="4">
+        <v>44033</v>
+      </c>
+      <c r="I111" s="3">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,2,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="J111" s="3">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率2]],info!E:G,2,FALSE)</f>
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="K111" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率3]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L111" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率4]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M111" s="3">
+        <v>2</v>
+      </c>
+      <c r="O111" s="5">
+        <v>1</v>
+      </c>
+      <c r="P111" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A112" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="B112" s="3">
+        <v>1835</v>
+      </c>
+      <c r="C112" s="3">
+        <v>1844.35</v>
+      </c>
+      <c r="F112" s="7" t="str">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,3,FALSE)</f>
+        <v>FET</v>
+      </c>
+      <c r="G112" s="4">
+        <v>42207</v>
+      </c>
+      <c r="H112" s="4">
+        <v>44033</v>
+      </c>
+      <c r="I112" s="3">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,2,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="J112" s="3">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率2]],info!E:G,2,FALSE)</f>
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="K112" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率3]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L112" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率4]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M112" s="3">
+        <v>2</v>
+      </c>
+      <c r="O112" s="5">
+        <v>0</v>
+      </c>
+      <c r="P112" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A113" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B113" s="3">
+        <v>1835</v>
+      </c>
+      <c r="C113" s="3">
+        <v>1844.35</v>
+      </c>
+      <c r="F113" s="7" t="str">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,3,FALSE)</f>
+        <v>FET</v>
+      </c>
+      <c r="G113" s="4">
+        <v>42391</v>
+      </c>
+      <c r="H113" s="4">
+        <v>44217</v>
+      </c>
+      <c r="I113" s="3">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,2,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="J113" s="3">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率2]],info!E:G,2,FALSE)</f>
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="K113" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率3]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L113" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率4]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M113" s="3">
+        <v>80</v>
+      </c>
+      <c r="O113" s="5">
+        <v>0</v>
+      </c>
+      <c r="P113" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A114" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B114" s="3">
+        <v>1835</v>
+      </c>
+      <c r="C114" s="3">
+        <v>1844.35</v>
+      </c>
+      <c r="F114" s="7" t="str">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,3,FALSE)</f>
+        <v>FET</v>
+      </c>
+      <c r="G114" s="4">
+        <v>42541</v>
+      </c>
+      <c r="H114" s="4">
+        <v>44366</v>
+      </c>
+      <c r="I114" s="3">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,2,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="J114" s="3">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率2]],info!E:G,2,FALSE)</f>
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="K114" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率3]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L114" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率4]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M114" s="3">
+        <v>60</v>
+      </c>
+      <c r="O114" s="5">
+        <v>0</v>
+      </c>
+      <c r="P114" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A115" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="B115" s="3">
+        <v>1810.65</v>
+      </c>
+      <c r="F115" s="7" t="str">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,3,FALSE)</f>
+        <v>TWM</v>
+      </c>
+      <c r="G115" s="4">
+        <v>42681</v>
+      </c>
+      <c r="H115" s="4">
+        <v>44506</v>
+      </c>
+      <c r="I115" s="3">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,2,FALSE)</f>
+        <v>11.3</v>
+      </c>
+      <c r="J115" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率2]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K115" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率3]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L115" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率4]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M115" s="3">
+        <v>40</v>
+      </c>
+      <c r="O115" s="5">
+        <v>0</v>
+      </c>
+      <c r="P115" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A116" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="B116" s="3">
+        <v>1835</v>
+      </c>
+      <c r="C116" s="3">
+        <v>1844.35</v>
+      </c>
+      <c r="F116" s="7" t="str">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,3,FALSE)</f>
+        <v>FET</v>
+      </c>
+      <c r="G116" s="4">
+        <v>42152</v>
+      </c>
+      <c r="H116" s="4">
+        <v>43978</v>
+      </c>
+      <c r="I116" s="3">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,2,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="J116" s="3">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率2]],info!E:G,2,FALSE)</f>
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="K116" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率3]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L116" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率4]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M116" s="3">
+        <v>18</v>
+      </c>
+      <c r="O116" s="5">
+        <v>0</v>
+      </c>
+      <c r="P116" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q116" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A117" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="B117" s="3">
+        <v>1857.5</v>
+      </c>
+      <c r="F117" s="7" t="str">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,3,FALSE)</f>
+        <v>CHT</v>
+      </c>
+      <c r="G117" s="4">
+        <v>42383</v>
+      </c>
+      <c r="H117" s="4">
+        <v>44209</v>
+      </c>
+      <c r="I117" s="3">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,2,FALSE)</f>
+        <v>15</v>
+      </c>
+      <c r="J117" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率2]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K117" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率3]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L117" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率4]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M117" s="3">
+        <v>60</v>
+      </c>
+      <c r="O117" s="5">
+        <v>1</v>
+      </c>
+      <c r="P117" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A118" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="B118" s="3">
+        <v>1857.5</v>
+      </c>
+      <c r="C118" s="3">
+        <v>945</v>
+      </c>
+      <c r="D118" s="3">
+        <v>2650</v>
+      </c>
+      <c r="F118" s="7" t="str">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,3,FALSE)</f>
+        <v>CHT</v>
+      </c>
+      <c r="G118" s="4">
+        <v>42447</v>
+      </c>
+      <c r="H118" s="4">
+        <v>43740</v>
+      </c>
+      <c r="I118" s="3">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,2,FALSE)</f>
+        <v>15</v>
+      </c>
+      <c r="J118" s="3">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率2]],info!E:G,2,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="K118" s="3">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率3]],info!E:G,2,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="L118" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率4]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M118" s="3">
+        <v>40</v>
+      </c>
+      <c r="O118" s="5">
+        <v>1</v>
+      </c>
+      <c r="P118" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q118" s="2" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A119" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="B119" s="3">
+        <v>773</v>
+      </c>
+      <c r="C119" s="3">
+        <v>1835</v>
+      </c>
+      <c r="D119" s="3">
+        <v>1844.35</v>
+      </c>
+      <c r="F119" s="7" t="str">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,3,FALSE)</f>
+        <v>FET</v>
+      </c>
+      <c r="G119" s="4">
+        <v>42166</v>
+      </c>
+      <c r="H119" s="4">
+        <v>43766</v>
+      </c>
+      <c r="I119" s="3">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,2,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="J119" s="3">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率2]],info!E:G,2,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="K119" s="3">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率3]],info!E:G,2,FALSE)</f>
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="L119" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率4]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M119" s="3">
+        <v>60</v>
+      </c>
+      <c r="O119" s="5">
+        <v>1</v>
+      </c>
+      <c r="P119" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A120" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="B120" s="3">
+        <v>793</v>
+      </c>
+      <c r="C120" s="3">
+        <v>1810.65</v>
+      </c>
+      <c r="F120" s="7" t="str">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,3,FALSE)</f>
+        <v>TWM</v>
+      </c>
+      <c r="G120" s="4">
+        <v>42738</v>
+      </c>
+      <c r="H120" s="4">
+        <v>43795</v>
+      </c>
+      <c r="I120" s="3">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,2,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="J120" s="3">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率2]],info!E:G,2,FALSE)</f>
+        <v>11.3</v>
+      </c>
+      <c r="K120" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率3]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L120" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率4]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M120" s="3">
+        <v>60</v>
+      </c>
+      <c r="O120" s="5">
+        <v>1</v>
+      </c>
+      <c r="P120" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A121" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="B121" s="3">
+        <v>773</v>
+      </c>
+      <c r="C121" s="3">
+        <v>1835</v>
+      </c>
+      <c r="D121" s="3">
+        <v>1844.35</v>
+      </c>
+      <c r="F121" s="7" t="str">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,3,FALSE)</f>
+        <v>FET</v>
+      </c>
+      <c r="G121" s="4">
+        <v>42184</v>
+      </c>
+      <c r="H121" s="4">
+        <v>43850</v>
+      </c>
+      <c r="I121" s="3">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,2,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="J121" s="3">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率2]],info!E:G,2,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="K121" s="3">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率3]],info!E:G,2,FALSE)</f>
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="L121" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率4]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M121" s="3">
+        <v>60</v>
+      </c>
+      <c r="O121" s="5">
+        <v>0</v>
+      </c>
+      <c r="P121" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A122" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="B122" s="3">
+        <v>945</v>
+      </c>
+      <c r="F122" s="7" t="str">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,3,FALSE)</f>
+        <v>CHT</v>
+      </c>
+      <c r="G122" s="4">
+        <v>42051</v>
+      </c>
+      <c r="H122" s="4">
+        <v>43876</v>
+      </c>
+      <c r="I122" s="3">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,2,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="J122" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率2]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K122" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率3]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L122" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率4]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M122" s="3">
+        <v>30</v>
+      </c>
+      <c r="O122" s="5">
+        <v>0</v>
+      </c>
+      <c r="P122" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A123" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="B123" s="3">
+        <v>945</v>
+      </c>
+      <c r="F123" s="7" t="str">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,3,FALSE)</f>
+        <v>CHT</v>
+      </c>
+      <c r="G123" s="4">
+        <v>42051</v>
+      </c>
+      <c r="H123" s="4">
+        <v>43876</v>
+      </c>
+      <c r="I123" s="3">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,2,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="J123" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率2]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K123" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率3]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L123" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率4]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M123" s="3">
+        <v>30</v>
+      </c>
+      <c r="O123" s="5">
+        <v>0</v>
+      </c>
+      <c r="P123" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A124" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="B124" s="3">
+        <v>763</v>
+      </c>
+      <c r="F124" s="7" t="str">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,3,FALSE)</f>
+        <v>GT</v>
+      </c>
+      <c r="G124" s="4">
+        <v>42223</v>
+      </c>
+      <c r="H124" s="4">
+        <v>44049</v>
+      </c>
+      <c r="I124" s="3">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,2,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="J124" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率2]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K124" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率3]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L124" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率4]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M124" s="3">
+        <v>40</v>
+      </c>
+      <c r="O124" s="5">
+        <v>1</v>
+      </c>
+      <c r="P124" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A125" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="B125" s="3">
+        <v>793</v>
+      </c>
+      <c r="C125" s="3">
+        <v>1810.65</v>
+      </c>
+      <c r="F125" s="7" t="str">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,3,FALSE)</f>
+        <v>TWM</v>
+      </c>
+      <c r="G125" s="4">
+        <v>42293</v>
+      </c>
+      <c r="H125" s="4">
+        <v>44070</v>
+      </c>
+      <c r="I125" s="3">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,2,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="J125" s="3">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率2]],info!E:G,2,FALSE)</f>
+        <v>11.3</v>
+      </c>
+      <c r="K125" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率3]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L125" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率4]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M125" s="3">
+        <v>60</v>
+      </c>
+      <c r="O125" s="5">
+        <v>1</v>
+      </c>
+      <c r="P125" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A126" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="B126" s="3">
+        <v>935</v>
+      </c>
+      <c r="C126" s="3">
+        <v>2630</v>
+      </c>
+      <c r="F126" s="7" t="str">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,3,FALSE)</f>
+        <v>T-STAR</v>
+      </c>
+      <c r="G126" s="4">
+        <v>42467</v>
+      </c>
+      <c r="H126" s="4">
+        <v>44091</v>
+      </c>
+      <c r="I126" s="3">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,2,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="J126" s="3">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率2]],info!E:G,2,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="K126" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率3]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L126" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率4]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M126" s="3">
+        <v>160</v>
+      </c>
+      <c r="O126" s="5">
+        <v>1</v>
+      </c>
+      <c r="P126" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A127" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="B127" s="3">
+        <v>935</v>
+      </c>
+      <c r="C127" s="3">
+        <v>2630</v>
+      </c>
+      <c r="F127" s="7" t="str">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,3,FALSE)</f>
+        <v>T-STAR</v>
+      </c>
+      <c r="G127" s="4">
+        <v>42467</v>
+      </c>
+      <c r="H127" s="4">
+        <v>44091</v>
+      </c>
+      <c r="I127" s="3">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,2,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="J127" s="3">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率2]],info!E:G,2,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="K127" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率3]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L127" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率4]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M127" s="3">
+        <v>160</v>
+      </c>
+      <c r="O127" s="5">
+        <v>0</v>
+      </c>
+      <c r="P127" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A128" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="B128" s="3">
+        <v>763</v>
+      </c>
+      <c r="F128" s="7" t="str">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,3,FALSE)</f>
+        <v>GT</v>
+      </c>
+      <c r="G128" s="4">
+        <v>42271</v>
+      </c>
+      <c r="H128" s="4">
+        <v>44097</v>
+      </c>
+      <c r="I128" s="3">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,2,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="J128" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率2]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K128" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率3]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L128" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率4]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M128" s="3">
+        <v>40</v>
+      </c>
+      <c r="O128" s="5">
+        <v>1</v>
+      </c>
+      <c r="P128" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A129" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="B129" s="3">
+        <v>935</v>
+      </c>
+      <c r="C129" s="3">
+        <v>2630</v>
+      </c>
+      <c r="F129" s="7" t="str">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,3,FALSE)</f>
+        <v>T-STAR</v>
+      </c>
+      <c r="G129" s="4">
+        <v>42902</v>
+      </c>
+      <c r="H129" s="4">
+        <v>44178</v>
+      </c>
+      <c r="I129" s="3">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,2,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="J129" s="3">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率2]],info!E:G,2,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="K129" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率3]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L129" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率4]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M129" s="3">
+        <v>160</v>
+      </c>
+      <c r="O129" s="5">
+        <v>0</v>
+      </c>
+      <c r="P129" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A130" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="B130" s="3">
+        <v>773</v>
+      </c>
+      <c r="C130" s="3">
+        <v>1835</v>
+      </c>
+      <c r="D130" s="3">
+        <v>1844.35</v>
+      </c>
+      <c r="F130" s="7" t="str">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,3,FALSE)</f>
+        <v>FET</v>
+      </c>
+      <c r="G130" s="4">
+        <v>42391</v>
+      </c>
+      <c r="H130" s="4">
+        <v>44217</v>
+      </c>
+      <c r="I130" s="3">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,2,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="J130" s="3">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率2]],info!E:G,2,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="K130" s="3">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率3]],info!E:G,2,FALSE)</f>
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="L130" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率4]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M130" s="3">
+        <v>60</v>
+      </c>
+      <c r="O130" s="5">
+        <v>0</v>
+      </c>
+      <c r="P130" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A131" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="B131" s="3">
+        <v>2650</v>
+      </c>
+      <c r="C131" s="3">
+        <v>1857.5</v>
+      </c>
+      <c r="D131" s="3">
+        <v>945</v>
+      </c>
+      <c r="F131" s="7" t="str">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,3,FALSE)</f>
+        <v>CHT</v>
+      </c>
+      <c r="G131" s="4">
+        <v>42611</v>
+      </c>
+      <c r="H131" s="4">
+        <v>44436</v>
+      </c>
+      <c r="I131" s="3">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,2,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="J131" s="3">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率2]],info!E:G,2,FALSE)</f>
+        <v>15</v>
+      </c>
+      <c r="K131" s="3">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率3]],info!E:G,2,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="L131" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率4]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M131" s="3">
+        <v>40</v>
+      </c>
+      <c r="O131" s="5">
+        <v>1</v>
+      </c>
+      <c r="P131" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A132" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="B132" s="3">
+        <v>1857.5</v>
+      </c>
+      <c r="C132" s="3">
+        <v>945</v>
+      </c>
+      <c r="D132" s="3">
+        <v>2650</v>
+      </c>
+      <c r="F132" s="7" t="str">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,3,FALSE)</f>
+        <v>CHT</v>
+      </c>
+      <c r="G132" s="4">
+        <v>42872</v>
+      </c>
+      <c r="H132" s="4">
+        <v>44697</v>
+      </c>
+      <c r="I132" s="3">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,2,FALSE)</f>
+        <v>15</v>
+      </c>
+      <c r="J132" s="3">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率2]],info!E:G,2,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="K132" s="3">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率3]],info!E:G,2,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="L132" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率4]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M132" s="3">
+        <v>40</v>
+      </c>
+      <c r="O132" s="5">
+        <v>1</v>
+      </c>
+      <c r="P132" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A133" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="B133" s="3">
+        <v>1857.5</v>
+      </c>
+      <c r="C133" s="3">
+        <v>945</v>
+      </c>
+      <c r="D133" s="3">
+        <v>2650</v>
+      </c>
+      <c r="F133" s="7" t="str">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,3,FALSE)</f>
+        <v>CHT</v>
+      </c>
+      <c r="G133" s="4">
+        <v>42887</v>
+      </c>
+      <c r="H133" s="4">
+        <v>44712</v>
+      </c>
+      <c r="I133" s="3">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,2,FALSE)</f>
+        <v>15</v>
+      </c>
+      <c r="J133" s="3">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率2]],info!E:G,2,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="K133" s="3">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率3]],info!E:G,2,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="L133" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率4]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M133" s="3">
+        <v>40</v>
+      </c>
+      <c r="O133" s="5">
+        <v>1</v>
+      </c>
+      <c r="P133" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A134" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="B134" s="3">
+        <v>952.5</v>
+      </c>
+      <c r="F134" s="7" t="str">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,3,FALSE)</f>
+        <v>GT</v>
+      </c>
+      <c r="G134" s="4">
+        <v>42887</v>
+      </c>
+      <c r="H134" s="4">
+        <v>44712</v>
+      </c>
+      <c r="I134" s="3">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,2,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="J134" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率2]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K134" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率3]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L134" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率4]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M134" s="3">
+        <v>60</v>
+      </c>
+      <c r="O134" s="5">
+        <v>0</v>
+      </c>
+      <c r="P134" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A135" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="B135" s="3">
+        <v>793</v>
+      </c>
+      <c r="C135" s="3">
+        <v>1810.65</v>
+      </c>
+      <c r="F135" s="7" t="str">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,3,FALSE)</f>
+        <v>TWM</v>
+      </c>
+      <c r="G135" s="4">
+        <v>42899</v>
+      </c>
+      <c r="H135" s="4">
+        <v>44724</v>
+      </c>
+      <c r="I135" s="3">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,2,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="J135" s="3">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率2]],info!E:G,2,FALSE)</f>
+        <v>11.3</v>
+      </c>
+      <c r="K135" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率3]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L135" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率4]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M135" s="3">
+        <v>60</v>
+      </c>
+      <c r="O135" s="5">
+        <v>1</v>
+      </c>
+      <c r="P135" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A136" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="B136" s="3">
+        <v>952.5</v>
+      </c>
+      <c r="F136" s="7" t="str">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,3,FALSE)</f>
+        <v>GT</v>
+      </c>
+      <c r="G136" s="4">
+        <v>42914</v>
+      </c>
+      <c r="H136" s="4">
+        <v>44739</v>
+      </c>
+      <c r="I136" s="3">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,2,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="J136" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率2]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K136" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率3]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L136" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率4]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M136" s="3">
+        <v>60</v>
+      </c>
+      <c r="O136" s="5">
+        <v>0</v>
+      </c>
+      <c r="P136" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A137" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="B137" s="3">
+        <v>763</v>
+      </c>
+      <c r="F137" s="7" t="str">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,3,FALSE)</f>
+        <v>GT</v>
+      </c>
+      <c r="G137" s="4">
+        <v>42914</v>
+      </c>
+      <c r="H137" s="4">
+        <v>44739</v>
+      </c>
+      <c r="I137" s="3">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,2,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="J137" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率2]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K137" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率3]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L137" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率4]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M137" s="3">
+        <v>40</v>
+      </c>
+      <c r="O137" s="5">
+        <v>0</v>
+      </c>
+      <c r="P137" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A138" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="B138" s="3">
+        <v>952.5</v>
+      </c>
+      <c r="F138" s="7" t="str">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,3,FALSE)</f>
+        <v>GT</v>
+      </c>
+      <c r="G138" s="4">
+        <v>42914</v>
+      </c>
+      <c r="H138" s="4">
+        <v>44739</v>
+      </c>
+      <c r="I138" s="3">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,2,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="J138" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率2]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K138" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率3]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L138" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率4]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M138" s="3">
+        <v>60</v>
+      </c>
+      <c r="O138" s="5">
+        <v>0</v>
+      </c>
+      <c r="P138" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A139" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="B139" s="3">
+        <v>952.5</v>
+      </c>
+      <c r="F139" s="7" t="str">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,3,FALSE)</f>
+        <v>GT</v>
+      </c>
+      <c r="G139" s="4">
+        <v>42914</v>
+      </c>
+      <c r="H139" s="4">
+        <v>42913</v>
+      </c>
+      <c r="I139" s="3">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,2,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="J139" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率2]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K139" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率3]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L139" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率4]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M139" s="3">
+        <v>60</v>
+      </c>
+      <c r="O139" s="5">
+        <v>0</v>
+      </c>
+      <c r="P139" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A140" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="B140" s="3">
+        <v>1835</v>
+      </c>
+      <c r="C140" s="3">
+        <v>1844.35</v>
+      </c>
+      <c r="F140" s="7" t="str">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,3,FALSE)</f>
+        <v>FET</v>
+      </c>
+      <c r="G140" s="4">
+        <v>42193</v>
+      </c>
+      <c r="H140" s="4">
+        <v>44019</v>
+      </c>
+      <c r="I140" s="3">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,2,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="J140" s="3">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率2]],info!E:G,2,FALSE)</f>
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="K140" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率3]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L140" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率4]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M140" s="3">
+        <v>18</v>
+      </c>
+      <c r="O140" s="5">
+        <v>10</v>
+      </c>
+      <c r="P140" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A141" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="B141" s="3">
+        <v>1835</v>
+      </c>
+      <c r="C141" s="3">
+        <v>1844.35</v>
+      </c>
+      <c r="F141" s="7" t="str">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,3,FALSE)</f>
+        <v>FET</v>
+      </c>
+      <c r="G141" s="4">
+        <v>42214</v>
+      </c>
+      <c r="H141" s="4">
+        <v>44040</v>
+      </c>
+      <c r="I141" s="3">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,2,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="J141" s="3">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率2]],info!E:G,2,FALSE)</f>
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="K141" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率3]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L141" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率4]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M141" s="3">
+        <v>18</v>
+      </c>
+      <c r="O141" s="5">
+        <v>0</v>
+      </c>
+      <c r="P141" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A142" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="B142" s="3">
+        <v>1835</v>
+      </c>
+      <c r="C142" s="3">
+        <v>1844.35</v>
+      </c>
+      <c r="D142" s="3">
+        <v>2670</v>
+      </c>
+      <c r="F142" s="7" t="str">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,3,FALSE)</f>
+        <v>FET</v>
+      </c>
+      <c r="G142" s="4">
+        <v>42592</v>
+      </c>
+      <c r="H142" s="4">
+        <v>44279</v>
+      </c>
+      <c r="I142" s="3">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,2,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="J142" s="3">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率2]],info!E:G,2,FALSE)</f>
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="K142" s="3">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率3]],info!E:G,2,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="L142" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率4]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M142" s="3">
+        <v>80</v>
+      </c>
+      <c r="O142" s="5">
+        <v>1</v>
+      </c>
+      <c r="P142" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A143" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="B143" s="3">
+        <v>1810.65</v>
+      </c>
+      <c r="F143" s="7" t="str">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,3,FALSE)</f>
+        <v>TWM</v>
+      </c>
+      <c r="G143" s="4">
+        <v>42676</v>
+      </c>
+      <c r="H143" s="4">
+        <v>44501</v>
+      </c>
+      <c r="I143" s="3">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,2,FALSE)</f>
+        <v>11.3</v>
+      </c>
+      <c r="J143" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率2]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K143" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率3]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L143" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率4]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M143" s="3">
+        <v>40</v>
+      </c>
+      <c r="O143" s="5">
+        <v>10</v>
+      </c>
+      <c r="P143" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A144" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="B144" s="3">
+        <v>1810.65</v>
+      </c>
+      <c r="F144" s="7" t="str">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,3,FALSE)</f>
+        <v>TWM</v>
+      </c>
+      <c r="G144" s="4">
+        <v>42678</v>
+      </c>
+      <c r="H144" s="4">
+        <v>44503</v>
+      </c>
+      <c r="I144" s="3">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,2,FALSE)</f>
+        <v>11.3</v>
+      </c>
+      <c r="J144" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率2]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K144" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率3]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L144" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率4]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M144" s="3">
+        <v>40</v>
+      </c>
+      <c r="O144" s="5">
+        <v>1</v>
+      </c>
+      <c r="P144" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A145" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="B145" s="3">
+        <v>773</v>
+      </c>
+      <c r="C145" s="3">
+        <v>1835</v>
+      </c>
+      <c r="D145" s="3">
+        <v>1844.35</v>
+      </c>
+      <c r="E145" s="3">
+        <v>2670</v>
+      </c>
+      <c r="F145" s="7" t="str">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,3,FALSE)</f>
+        <v>FET</v>
+      </c>
+      <c r="G145" s="4">
+        <v>42621</v>
+      </c>
+      <c r="H145" s="4">
+        <v>43582</v>
+      </c>
+      <c r="I145" s="3">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,2,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="J145" s="3">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率2]],info!E:G,2,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="K145" s="3">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率3]],info!E:G,2,FALSE)</f>
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="L145" s="3">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率4]],info!E:G,2,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="M145" s="3">
+        <v>80</v>
+      </c>
+      <c r="O145" s="5">
+        <v>0</v>
+      </c>
+      <c r="P145" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q145" s="2" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="146" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A146" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="B146" s="3">
+        <v>763</v>
+      </c>
+      <c r="F146" s="7" t="str">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,3,FALSE)</f>
+        <v>GT</v>
+      </c>
+      <c r="G146" s="4">
+        <v>41929</v>
+      </c>
+      <c r="H146" s="4">
+        <v>43754</v>
+      </c>
+      <c r="I146" s="3">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,2,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="J146" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率2]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K146" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率3]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L146" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率4]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M146" s="3">
+        <v>40</v>
+      </c>
+      <c r="O146" s="5">
+        <v>1</v>
+      </c>
+      <c r="P146" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A147" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="B147" s="3">
+        <v>1810.65</v>
+      </c>
+      <c r="C147" s="3">
+        <v>793</v>
+      </c>
+      <c r="F147" s="7" t="str">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,3,FALSE)</f>
+        <v>TWM</v>
+      </c>
+      <c r="G147" s="4">
+        <v>42670</v>
+      </c>
+      <c r="H147" s="4">
+        <v>43702</v>
+      </c>
+      <c r="I147" s="3">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,2,FALSE)</f>
+        <v>11.3</v>
+      </c>
+      <c r="J147" s="3">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率2]],info!E:G,2,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="K147" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率3]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L147" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率4]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M147" s="3">
+        <v>60</v>
+      </c>
+      <c r="O147" s="5">
+        <v>1</v>
+      </c>
+      <c r="P147" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A148" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="B148" s="3">
+        <v>935</v>
+      </c>
+      <c r="F148" s="7" t="str">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,3,FALSE)</f>
+        <v>T-STAR</v>
+      </c>
+      <c r="G148" s="4">
+        <v>41901</v>
+      </c>
+      <c r="H148" s="4">
+        <v>43726</v>
+      </c>
+      <c r="I148" s="3">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,2,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="J148" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率2]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K148" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率3]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L148" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率4]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M148" s="3">
+        <v>40</v>
+      </c>
+      <c r="O148" s="5">
+        <v>0</v>
+      </c>
+      <c r="P148" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A149" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="B149" s="3">
+        <v>793</v>
+      </c>
+      <c r="C149" s="3">
+        <v>1810.65</v>
+      </c>
+      <c r="F149" s="7" t="str">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,3,FALSE)</f>
+        <v>TWM</v>
+      </c>
+      <c r="G149" s="4">
+        <v>42654</v>
+      </c>
+      <c r="H149" s="4">
+        <v>44433</v>
+      </c>
+      <c r="I149" s="3">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,2,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="J149" s="3">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率2]],info!E:G,2,FALSE)</f>
+        <v>11.3</v>
+      </c>
+      <c r="K149" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率3]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L149" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率4]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M149" s="3">
+        <v>60</v>
+      </c>
+      <c r="O149" s="5">
+        <v>11</v>
+      </c>
+      <c r="P149" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A150" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="B150" s="3">
+        <v>952.5</v>
+      </c>
+      <c r="F150" s="7" t="str">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,3,FALSE)</f>
+        <v>GT</v>
+      </c>
+      <c r="G150" s="4">
+        <v>42887</v>
+      </c>
+      <c r="H150" s="4">
+        <v>44712</v>
+      </c>
+      <c r="I150" s="3">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,2,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="J150" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率2]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K150" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率3]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L150" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率4]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M150" s="3">
+        <v>60</v>
+      </c>
+      <c r="O150" s="5">
+        <v>0</v>
+      </c>
+      <c r="P150" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A151" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="B151" s="3">
+        <v>1835</v>
+      </c>
+      <c r="C151" s="3">
+        <v>1844.35</v>
+      </c>
+      <c r="F151" s="7" t="str">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,3,FALSE)</f>
+        <v>FET</v>
+      </c>
+      <c r="G151" s="4">
+        <v>42152</v>
+      </c>
+      <c r="H151" s="4">
+        <v>43978</v>
+      </c>
+      <c r="I151" s="3">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,2,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="J151" s="3">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率2]],info!E:G,2,FALSE)</f>
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="K151" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率3]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L151" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率4]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M151" s="3">
+        <v>18</v>
+      </c>
+      <c r="O151" s="5">
+        <v>0</v>
+      </c>
+      <c r="P151" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A152" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="B152" s="3">
+        <v>1835</v>
+      </c>
+      <c r="C152" s="3">
+        <v>1844.35</v>
+      </c>
+      <c r="F152" s="7" t="str">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,3,FALSE)</f>
+        <v>FET</v>
+      </c>
+      <c r="G152" s="4">
+        <v>42643</v>
+      </c>
+      <c r="H152" s="4">
+        <v>44468</v>
+      </c>
+      <c r="I152" s="3">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,2,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="J152" s="3">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率2]],info!E:G,2,FALSE)</f>
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="K152" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率3]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L152" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率4]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M152" s="3">
+        <v>60</v>
+      </c>
+      <c r="O152" s="5">
+        <v>10</v>
+      </c>
+      <c r="P152" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A153" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="B153" s="3">
+        <v>1810.65</v>
+      </c>
+      <c r="F153" s="7" t="str">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,3,FALSE)</f>
+        <v>TWM</v>
+      </c>
+      <c r="G153" s="4">
+        <v>42676</v>
+      </c>
+      <c r="H153" s="4">
+        <v>44501</v>
+      </c>
+      <c r="I153" s="3">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,2,FALSE)</f>
+        <v>11.3</v>
+      </c>
+      <c r="J153" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率2]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K153" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率3]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L153" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率4]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M153" s="3">
+        <v>40</v>
+      </c>
+      <c r="O153" s="5">
+        <v>0</v>
+      </c>
+      <c r="P153" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A154" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="B154" s="3">
+        <v>1857.5</v>
+      </c>
+      <c r="F154" s="7" t="str">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,3,FALSE)</f>
+        <v>CHT</v>
+      </c>
+      <c r="G154" s="4">
+        <v>42872</v>
+      </c>
+      <c r="H154" s="4">
+        <v>44697</v>
+      </c>
+      <c r="I154" s="3">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,2,FALSE)</f>
+        <v>15</v>
+      </c>
+      <c r="J154" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率2]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K154" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率3]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L154" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率4]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M154" s="3">
+        <v>60</v>
+      </c>
+      <c r="O154" s="5">
+        <v>11</v>
+      </c>
+      <c r="P154" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="F155" s="7" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I155" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J155" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率2]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K155" s="3" t="e">
+        <f>VLOOKUP(keyin[[#This Row],[中心頻率3]],info!E:G,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L155" s="3" t="e">
         <f>VLOOKUP(keyin[[#This Row],[中心頻率4]],info!E:G,2,FALSE)</f>
         <v>#N/A</v>
       </c>
